--- a/casting-net/Cast-Net-calculation.xlsx
+++ b/casting-net/Cast-Net-calculation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="19875" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="19875" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет количества рядов" sheetId="1" r:id="rId1"/>
@@ -128,10 +128,10 @@
     <t>&lt;-- ВВОДИМ ТО, ЧТО ПОЛУЧИЛОСЬ ПО ФАКТУ, значение не в метрах, а в сантиметрах!</t>
   </si>
   <si>
-    <t>не надо шнур резать сразу, если будете подщивать через интервал подвязки (см. ниже) по вырезанному шаблону. Будет погрешность, так что лучше обрезать по факту</t>
-  </si>
-  <si>
-    <t xml:space="preserve">можно сделать шаблончик и отмерять места подвязки на шнуре. </t>
+    <t>не надо шнур резать сразу, если будете подшивать через интервал подвязки (см. ниже) по вырезанному шаблону. Будет погрешность, так что лучше обрезать по факту</t>
+  </si>
+  <si>
+    <t>можно сделать шаблончик и отмерять места подвязки на шнуре, а не отмечать места подвязки на отрезанном</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -731,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/casting-net/Cast-Net-calculation.xlsx
+++ b/casting-net/Cast-Net-calculation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Параметр</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Буду вязать клиньев (количество клиньев), шт:</t>
   </si>
   <si>
-    <t>Начину с количества ячей, шт:</t>
-  </si>
-  <si>
     <t>значение не в метрах, а в сантиметрах!</t>
   </si>
   <si>
@@ -44,12 +41,6 @@
     <t>Количество рядов на конус:</t>
   </si>
   <si>
-    <t>Высота ячейки в полете будет, мм:</t>
-  </si>
-  <si>
-    <t>Ширина ячейки в полете будет, мм:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Длину шнура лучше мерять по длине полотна получившегося по факту, вытянутого вертикально (см. следующий лист) </t>
   </si>
   <si>
@@ -86,9 +77,6 @@
     <t>k=a/b, это формулки из видео</t>
   </si>
   <si>
-    <t>k, коэффициент полетного раскрытия:</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -132,6 +120,24 @@
   </si>
   <si>
     <t>можно сделать шаблончик и отмерять места подвязки на шнуре, а не отмечать места подвязки на отрезанном</t>
+  </si>
+  <si>
+    <t>k, коэффициент полётного раскрытия:</t>
+  </si>
+  <si>
+    <t>Высота ячейки в полёте будет, мм:</t>
+  </si>
+  <si>
+    <t>Ширина ячейки в полёте будет, мм:</t>
+  </si>
+  <si>
+    <t>Количество рядов с добавками:</t>
+  </si>
+  <si>
+    <t>Начну с количества ячей, шт:</t>
+  </si>
+  <si>
+    <t>Общее количество работы (провязанных ячей):</t>
   </si>
 </sst>
 </file>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -505,17 +511,17 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -543,13 +549,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4">
         <v>60</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>IF(MOD(B8,B9)&lt;&gt;0,"Количество ячеек вначале лучше взять кратно количеству клиньев","ОК, Количество ячеек в основании клина "&amp;B8/B9&amp;" шт.")</f>
+        <f>IF(MOD(B8,B9)&lt;&gt;0,"FAIL: Количество ячеек вначале лучше взять кратно количеству клиньев","ОК, Количество ячеек в основании клина "&amp;B8/B9&amp;" шт.")</f>
         <v>ОК, Количество ячеек в основании клина 3 шт.</v>
       </c>
     </row>
@@ -567,18 +573,18 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>500</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -596,28 +602,28 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
+      <c r="A16" t="s">
+        <v>36</v>
       </c>
       <c r="B16" s="5">
-        <f>2*B25</f>
+        <f>2*B27</f>
         <v>54.275508634417861</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B17" s="5">
-        <f>B26*2</f>
+        <f>B28*2</f>
         <v>25.576730879360483</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <f>FLOOR(3*B8/B9,1)</f>
@@ -630,10 +636,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <f>FLOOR(B10*10/(2*B25), 1)-B18</f>
+        <f>FLOOR(B10*10/(2*B27), 1)-B18</f>
         <v>83</v>
       </c>
       <c r="C19" s="2" t="str">
@@ -643,7 +649,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
         <f>B8/B9+FLOOR(B19/3,1)</f>
@@ -653,7 +659,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1">
         <f>B20*B9</f>
@@ -663,62 +669,82 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1">
         <f>FLOOR((B18+B19)*B7/10, 1)</f>
         <v>276</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3">
+        <f>FLOOR(B19/3,1)</f>
+        <v>27</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1">
+        <f>3*(B23*B8/B9+(B23-1)*B23/2)*B9+B8*B18</f>
+        <v>26460</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
         <f>FLOOR(B10*PI(), 1)</f>
         <v>1570</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6">
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="6">
         <f>B9/(3*PI())</f>
         <v>2.1220659078919377</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6">
-        <f>B7*B24/SQRT(B24*B24+1)</f>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6">
+        <f>B7*B26/SQRT(B26*B26+1)</f>
         <v>27.13775431720893</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6">
-        <f>B25/B24</f>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="6">
+        <f>B27/B26</f>
         <v>12.788365439680241</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +769,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -772,7 +798,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4">
         <f>'Расчет количества рядов'!B9</f>
@@ -785,31 +811,31 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4">
         <f>'Расчет количества рядов'!B22</f>
         <v>276</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4">
         <f>'Расчет количества рядов'!B21</f>
         <v>600</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -825,31 +851,31 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5">
         <f>B6*B15</f>
         <v>1568.7061606007762</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5">
         <f>B12*10/B7</f>
         <v>26.145102676679606</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5">
         <f>B5/(3*PI())</f>
@@ -858,7 +884,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" s="5">
         <f>2*PI()*B14/SQRT(B14*B14+1)</f>

--- a/casting-net/Cast-Net-calculation.xlsx
+++ b/casting-net/Cast-Net-calculation.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="19875" windowHeight="7710"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="19875" windowHeight="7710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет количества рядов" sheetId="1" r:id="rId1"/>
     <sheet name="Расчет длины грузового шнура" sheetId="2" r:id="rId2"/>
+    <sheet name="Трудоемкость(N-клиньев) " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Параметр</t>
   </si>
@@ -44,9 +45,6 @@
     <t xml:space="preserve">Длину шнура лучше мерять по длине полотна получившегося по факту, вытянутого вертикально (см. следующий лист) </t>
   </si>
   <si>
-    <t>Финальное количество ячей в клине:</t>
-  </si>
-  <si>
     <t>Приблизительно хочу такой "полётный" диаметр, см:</t>
   </si>
   <si>
@@ -138,12 +136,54 @@
   </si>
   <si>
     <t>Общее количество работы (провязанных ячей):</t>
+  </si>
+  <si>
+    <t>Финальное количество ячей в последнем ряду клина:</t>
+  </si>
+  <si>
+    <t>ВысЯчеи</t>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t>Буду вязать клинья в количестве</t>
+  </si>
+  <si>
+    <t>Трудоемкость</t>
+  </si>
+  <si>
+    <t>ячей, шт.</t>
+  </si>
+  <si>
+    <t>НКЯ*</t>
+  </si>
+  <si>
+    <t>РНК***</t>
+  </si>
+  <si>
+    <t>РБД**</t>
+  </si>
+  <si>
+    <t>*НКЯ - начальное количество ячей (берем ближайшее к значению пользователя, но кратное количеству клиньев)</t>
+  </si>
+  <si>
+    <t>*** РНК - количество рядов, провязываемых клиньями</t>
+  </si>
+  <si>
+    <t>**РБД - рядов без добавок</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -172,12 +212,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -202,6 +248,22 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -498,20 +560,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -521,7 +583,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -549,13 +611,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4">
         <v>60</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>IF(MOD(B8,B9)&lt;&gt;0,"FAIL: Количество ячеек вначале лучше взять кратно количеству клиньев","ОК, Количество ячеек в основании клина "&amp;B8/B9&amp;" шт.")</f>
+        <f>IF(MOD(B8,B9)&lt;&gt;0,"ОЙ-ОЙ!: Количество ячеек вначале лучше взять кратно количеству клиньев","ОК, Количество ячеек в основании клина "&amp;B8/B9&amp;" шт.")</f>
         <v>ОК, Количество ячеек в основании клина 3 шт.</v>
       </c>
     </row>
@@ -573,7 +635,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>500</v>
@@ -584,7 +646,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -603,7 +665,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="5">
         <f>2*B27</f>
@@ -613,7 +675,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="5">
         <f>B28*2</f>
@@ -648,8 +710,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>9</v>
+      <c r="A20" t="s">
+        <v>40</v>
       </c>
       <c r="B20" s="1">
         <f>B8/B9+FLOOR(B19/3,1)</f>
@@ -659,7 +721,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1">
         <f>B20*B9</f>
@@ -669,19 +731,19 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1">
         <f>FLOOR((B18+B19)*B7/10, 1)</f>
         <v>276</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3">
         <f>FLOOR(B19/3,1)</f>
@@ -691,60 +753,60 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1">
-        <f>3*(B23*B8/B9+(B23-1)*B23/2)*B9+B8*B18</f>
-        <v>26460</v>
+        <f>B9*((B18*B8/B9) + (B19*B8/B9) + 3*FLOOR(B19/3, 1)*(FLOOR(B19/3, 1) + 1)/2 + (B19-FLOOR(B19/3, 1)*3)*(FLOOR(B19/3, 1) + 1))</f>
+        <v>29320</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <f>FLOOR(B10*PI(), 1)</f>
         <v>1570</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="6">
         <f>B9/(3*PI())</f>
         <v>2.1220659078919377</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="6">
         <f>B7*B26/SQRT(B26*B26+1)</f>
         <v>27.13775431720893</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="6">
         <f>B27/B26</f>
         <v>12.788365439680241</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +831,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -798,7 +860,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4">
         <f>'Расчет количества рядов'!B9</f>
@@ -811,31 +873,31 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4">
         <f>'Расчет количества рядов'!B22</f>
         <v>276</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="4">
         <f>'Расчет количества рядов'!B21</f>
         <v>600</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -851,31 +913,31 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5">
         <f>B6*B15</f>
         <v>1568.7061606007762</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5">
         <f>B12*10/B7</f>
         <v>26.145102676679606</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5">
         <f>B5/(3*PI())</f>
@@ -884,11 +946,945 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5">
         <f>2*PI()*B14/SQRT(B14*B14+1)</f>
         <v>5.683717973191218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <f>'Расчет количества рядов'!B7</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'Расчет количества рядов'!B8</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <f>'Расчет количества рядов'!B10</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12" t="str">
+        <f>"-&gt;"</f>
+        <v>-&gt;</v>
+      </c>
+      <c r="C11" s="13">
+        <f>A11/(3*PI())</f>
+        <v>0.74272306776217822</v>
+      </c>
+      <c r="D11" s="14">
+        <f>2*$B$4*C11/SQRT(C11*C11+1)</f>
+        <v>35.775278367212543</v>
+      </c>
+      <c r="E11" s="11">
+        <f>FLOOR(($B$5+A11-1)/A11,1)*A11</f>
+        <v>63</v>
+      </c>
+      <c r="F11" s="11">
+        <f>3*E11/A11</f>
+        <v>27</v>
+      </c>
+      <c r="G11" s="11">
+        <f>FLOOR($B$6*10/D11, 1)-F11</f>
+        <v>112</v>
+      </c>
+      <c r="H11" s="11">
+        <f>A11*((F11*E11/A11) + (G11*E11/A11) + 3*FLOOR(G11/3, 1)*(FLOOR(G11/3, 1) + 1)/2 + (G11-FLOOR(G11/3, 1)*3)*(FLOOR(G11/3, 1) + 1))</f>
+        <v>23786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11">
+        <f>A11+1</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="12" t="str">
+        <f t="shared" ref="B12:B34" si="0">"-&gt;"</f>
+        <v>-&gt;</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" ref="C12:C34" si="1">A12/(3*PI())</f>
+        <v>0.84882636315677518</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" ref="D12:D34" si="2">2*$B$4*C12/SQRT(C12*C12+1)</f>
+        <v>38.827728986254264</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" ref="E12:E34" si="3">FLOOR(($B$5+A12-1)/A12,1)*A12</f>
+        <v>64</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" ref="F12:F34" si="4">3*E12/A12</f>
+        <v>24</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" ref="G12:G34" si="5">FLOOR($B$6*10/D12, 1)-F12</f>
+        <v>104</v>
+      </c>
+      <c r="H12" s="11">
+        <f t="shared" ref="H12:H34" si="6">A12*((F12*E12/A12) + (G12*E12/A12) + 3*FLOOR(G12/3, 1)*(FLOOR(G12/3, 1) + 1)/2 + (G12-FLOOR(G12/3, 1)*3)*(FLOOR(G12/3, 1) + 1))</f>
+        <v>23032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="11">
+        <f t="shared" ref="A13:A34" si="7">A12+1</f>
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.95492965855137202</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="2"/>
+        <v>41.437267353201662</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="6"/>
+        <v>22707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0610329539459689</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="2"/>
+        <v>43.663631003371627</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>22680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="1"/>
+        <v>1.1671362493405659</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="2"/>
+        <v>45.563159284019711</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>22880</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
+        <v>1.2732395447351628</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="2"/>
+        <v>47.186346005723003</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>23040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="1"/>
+        <v>1.3793428401297596</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="2"/>
+        <v>48.577020883070624</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>23595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="1"/>
+        <v>1.4854461355243564</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="2"/>
+        <v>49.772463352363822</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>24458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="1"/>
+        <v>1.5915494309189535</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="2"/>
+        <v>50.803980957889827</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>25020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6976527263135504</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" si="2"/>
+        <v>51.697668099336781</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>25632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8037560217081472</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="2"/>
+        <v>52.47518747878442</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>26690</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="1"/>
+        <v>1.909859317102744</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="2"/>
+        <v>53.154495859022724</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>27684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0159626124973409</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="2"/>
+        <v>53.750481874957053</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>28614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" si="1"/>
+        <v>2.1220659078919377</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="2"/>
+        <v>54.275508634417861</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>29320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="1"/>
+        <v>2.228169203286535</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="2"/>
+        <v>54.739866220665604</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>30135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C26" s="8">
+        <f t="shared" si="1"/>
+        <v>2.3342724986811318</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="2"/>
+        <v>55.152144456899208</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>30888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C27" s="8">
+        <f t="shared" si="1"/>
+        <v>2.4403757940757287</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="2"/>
+        <v>55.519537740920896</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>32292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C28" s="8">
+        <f t="shared" si="1"/>
+        <v>2.5464790894703255</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="2"/>
+        <v>55.848093329922001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>32976</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="1"/>
+        <v>2.6525823848649224</v>
+      </c>
+      <c r="D29" s="5">
+        <f t="shared" si="2"/>
+        <v>56.142913216722299</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>34350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="1"/>
+        <v>2.7586856802595192</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="2"/>
+        <v>56.408318251859143</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>34944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="1"/>
+        <v>2.8647889756541161</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="2"/>
+        <v>56.647981707795012</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>36288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C32" s="8">
+        <f t="shared" si="1"/>
+        <v>2.9708922710487129</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" si="2"/>
+        <v>56.865038173485132</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>36792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C33" s="8">
+        <f t="shared" si="1"/>
+        <v>3.0769955664433097</v>
+      </c>
+      <c r="D33" s="5">
+        <f t="shared" si="2"/>
+        <v>57.062172549249581</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>38106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>-&gt;</v>
+      </c>
+      <c r="C34" s="8">
+        <f t="shared" si="1"/>
+        <v>3.183098861837907</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" si="2"/>
+        <v>57.241692982707903</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>39240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/casting-net/Cast-Net-calculation.xlsx
+++ b/casting-net/Cast-Net-calculation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="19875" windowHeight="7710" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="330" windowWidth="19875" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Расчет количества рядов" sheetId="1" r:id="rId1"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/casting-net/Cast-Net-calculation.xlsx
+++ b/casting-net/Cast-Net-calculation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Параметр</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>k=a/b, отношение высоты ячейки к её ширине</t>
+  </si>
+  <si>
+    <t>Затраты нити(лески) на узел, мм:</t>
+  </si>
+  <si>
+    <t>Затраты нити(лески) на узел добавки, мм:</t>
+  </si>
+  <si>
+    <t>Затраты нити(лески), м:</t>
+  </si>
+  <si>
+    <t>Очень грубо! Особенно сложно учесть затраты на узлы...</t>
   </si>
 </sst>
 </file>
@@ -506,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -589,7 +601,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>IF(B26 &lt; 1, "Мало, сеть нормально не раскроется (самый минимум 'клиньев' (при M="&amp;B9&amp;") это - "&amp;CEILING(B9*PI(),1)&amp;" штук)", IF(B26 &gt; 2, "Круто, но работы будет много, можно и поменьше", "Нормально! Берите N в пределах от "&amp;CEILING(B9*PI(),1)&amp;" до "&amp;FLOOR(2*B9*PI(),1)))</f>
+        <f>IF(B29 &lt; 1, "Мало, сеть нормально не раскроется (самый минимум 'клиньев' (при M="&amp;B9&amp;") это - "&amp;CEILING(B9*PI(),1)&amp;" штук)", IF(B29 &gt; 2, "Круто, но работы будет много, можно и поменьше", "Нормально! Берите N в пределах от "&amp;CEILING(B9*PI(),1)&amp;" до "&amp;FLOOR(2*B9*PI(),1)))</f>
         <v>Нормально! Берите N в пределах от 10 до 18</v>
       </c>
     </row>
@@ -605,174 +617,210 @@
         <v>ОК, Количество ячеек в основании 'клина' 0 шт.</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>IF(B12=0,"ОЙ! Расчёту затрат нити(лески) нельзя верить!!! ","")&amp;"Умножьте толщину нити(лески) в мм на 13.5 для шкотового узла, на 22.5 - брамшкот, на 18 - полуторный"</f>
+        <v>ОЙ! Расчёту затрат нити(лески) нельзя верить!!! Умножьте толщину нити(лески) в мм на 13.5 для шкотового узла, на 22.5 - брамшкот, на 18 - полуторный</v>
+      </c>
+    </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>IF(B13=0,"ОЙ! Расчёту затрат нити(лески) нельзя верить!!! ","")&amp;"Умножьте толщину нити(лески) в мм на 33 для скользящей добавки"</f>
+        <v>ОЙ! Расчёту затрат нити(лески) нельзя верить!!! Умножьте толщину нити(лески) в мм на 33 для скользящей добавки</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="6">
-        <f>B28*2</f>
-        <v>37.060069490331365</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="5">
-        <f>B27*2</f>
-        <v>47.186346005723003</v>
-      </c>
-      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="6">
+        <f>B31*2</f>
+        <v>37.060069490331365</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <f>B30*2</f>
+        <v>47.186346005723003</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <f>FLOOR(B9*B11/B10,1)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B19">
-        <f>FLOOR(B8*10/(2*B27), 1)-B18</f>
+      <c r="B21">
+        <f>FLOOR(B8*10/(2*B30), 1)-B20</f>
         <v>105</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C21" s="2" t="str">
         <f>"Каждый "&amp;B9&amp;"-й ряд делаем "&amp;B10&amp;" добавок (см. схему)!!! (вяжем клиньями)"</f>
         <v>Каждый 3-й ряд делаем 12 добавок (см. схему)!!! (вяжем клиньями)</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3">
-        <f>B11/B10+B23</f>
-        <v>35</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="3">
-        <f>B20*B10</f>
-        <v>420</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
-        <f>FLOOR((B18+B19)*B7/10, 1)</f>
-        <v>315</v>
-      </c>
-      <c r="C22" s="2" t="str">
-        <f>"Это приблизительно! Т.е. "&amp;CEILING(B22/100,0.01)&amp;" метра"</f>
-        <v>Это приблизительно! Т.е. 3,15 метра</v>
-      </c>
+        <f>B11/B10+B25</f>
+        <v>35</v>
+      </c>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3">
-        <f>FLOOR(B19/B9,1)</f>
-        <v>35</v>
+        <f>B22*B10</f>
+        <v>420</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <f>(B18+B19)*B11 + B10*(B23*(B23+1)*B9/2 + (B19-B23*B9)*(B23+1))</f>
-        <v>22680</v>
+        <f>FLOOR((B20+B21)*B7/10, 1)</f>
+        <v>315</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>"Примерно! Из этих ячеек "&amp;B23*B10&amp;" штук - 'добавки'"</f>
-        <v>Примерно! Из этих ячеек 420 штук - 'добавки'</v>
+        <f>"Это приблизительно! Т.е. "&amp;CEILING(B24/100,0.01)&amp;" метра"</f>
+        <v>Это приблизительно! Т.е. 3,15 метра</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
-        <f>FLOOR(B8*PI(), 1)</f>
-        <v>1570</v>
-      </c>
-      <c r="C25" s="2" t="str">
-        <f>"Не надо сразу резать! Подвязывайте ячейки через "&amp;CEILING(B16,0.01)&amp;" мм как можно точнее"</f>
-        <v>Не надо сразу резать! Подвязывайте ячейки через 37,07 мм как можно точнее</v>
-      </c>
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3">
+        <f>FLOOR(B21/B9,1)</f>
+        <v>35</v>
+      </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="3">
+        <f>(B20+B21)*B11 + B10*(B25*(B25+1)*B9/2 + (B21-B25*B9)*(B25+1))</f>
+        <v>22680</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f>"Примерно! Из этих ячеек "&amp;B25*B10&amp;" штук - 'добавки'"</f>
+        <v>Примерно! Из этих ячеек 420 штук - 'добавки'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <f>FLOOR(B23*B18/10, 1)</f>
+        <v>1556</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f>"Не надо сразу резать! Подвязывайте ячейки через "&amp;CEILING(B18,0.01)&amp;" мм как можно точнее"</f>
+        <v>Не надо сразу резать! Подвязывайте ячейки через 37,07 мм как можно точнее</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <f>CEILING(((B26-B25*B10)*(B12 + 2*B7) + B25*B10*(B13 + 4*B7))/1000,1)</f>
+        <v>1386</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B29" s="6">
         <f>B10/(B9*PI())</f>
         <v>1.2732395447351628</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="6">
-        <f>B7*B26/SQRT(B26*B26+1)</f>
+      <c r="B30" s="6">
+        <f>B7*B29/SQRT(B29*B29+1)</f>
         <v>23.593173002861501</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="6">
-        <f>B27/B26</f>
+      <c r="B31" s="6">
+        <f>B30/B29</f>
         <v>18.530034745165683</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -874,7 +922,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="4">
-        <f>'Расчет количества рядов'!B21</f>
+        <f>'Расчет количества рядов'!B23</f>
         <v>420</v>
       </c>
       <c r="C12" s="2" t="s">
